--- a/mahjong_management.xlsx
+++ b/mahjong_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\italab\mahjong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD24DE6-EF65-48F3-B6A0-A4783C807CA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22225A77-543F-4BA7-9618-CAD4B35E88F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="750" firstSheet="25" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="750" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="250502" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="45">
   <si>
     <t>板倉</t>
   </si>
@@ -174,6 +174,55 @@
   </si>
   <si>
     <t>市川</t>
+  </si>
+  <si>
+    <t>・mainは3行</t>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モジュール化する</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・直接対決の成績を付ける</t>
+    <rPh sb="1" eb="3">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイケツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・平均着順同じ時にランク分けする</t>
+    <rPh sb="1" eb="3">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チャクジュン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4555,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6544,8 +6593,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6591,26 +6640,38 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/mahjong_management.xlsx
+++ b/mahjong_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\italab\mahjong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22225A77-543F-4BA7-9618-CAD4B35E88F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BACB2F-DBB8-4E27-83D0-C15A5EA5176C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="750" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="750" firstSheet="19" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="250502" sheetId="1" r:id="rId1"/>
@@ -44,14 +44,15 @@
     <sheet name="250922_2" sheetId="29" r:id="rId29"/>
     <sheet name="250927" sheetId="30" r:id="rId30"/>
     <sheet name="250928" sheetId="31" r:id="rId31"/>
-    <sheet name="250928_2" sheetId="33" r:id="rId32"/>
+    <sheet name="250928_2" sheetId="32" r:id="rId32"/>
+    <sheet name="251002" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
   <si>
     <t>板倉</t>
   </si>
@@ -143,6 +144,18 @@
     <t>・人ごとの時系列の各スタッツの推移を見れるようにする（グラフ）</t>
   </si>
   <si>
+    <t>・mainは3行</t>
+  </si>
+  <si>
+    <t>・モジュール化する</t>
+  </si>
+  <si>
+    <t>・直接対決の成績を付ける</t>
+  </si>
+  <si>
+    <t>・平均着順同じ時にランク分けする</t>
+  </si>
+  <si>
     <t>原田</t>
   </si>
   <si>
@@ -176,53 +189,16 @@
     <t>市川</t>
   </si>
   <si>
-    <t>・mainは3行</t>
-    <rPh sb="7" eb="8">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>testA</t>
   </si>
   <si>
-    <t>・モジュール化する</t>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>testB</t>
   </si>
   <si>
-    <t>・直接対決の成績を付ける</t>
-    <rPh sb="1" eb="3">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイケツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイセキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>testC</t>
   </si>
   <si>
-    <t>・平均着順同じ時にランク分けする</t>
-    <rPh sb="1" eb="3">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チャクジュン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>testD</t>
   </si>
 </sst>
 </file>
@@ -664,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -715,7 +691,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -755,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1009,7 +985,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -1189,7 +1165,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>-35</v>
@@ -1223,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1280,7 +1256,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>19</v>
@@ -1429,7 +1405,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -1520,7 +1496,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>-64</v>
@@ -1669,7 +1645,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>-54</v>
@@ -1700,7 +1676,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1760,7 +1736,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>-60</v>
@@ -1791,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1851,7 +1827,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -1885,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1942,7 +1918,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -2446,7 +2422,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>179</v>
@@ -2595,7 +2571,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>44</v>
@@ -2626,16 +2602,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2686,7 +2662,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>79</v>
@@ -2720,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2777,7 +2753,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>-13</v>
@@ -2808,10 +2784,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2897,7 +2873,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -2928,10 +2904,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2988,7 +2964,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>-7</v>
@@ -3022,7 +2998,7 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3079,7 +3055,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>-18</v>
@@ -3110,10 +3086,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3286,7 +3262,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>132</v>
@@ -3317,13 +3293,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -3377,7 +3353,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -3411,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3468,7 +3444,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -4013,7 +3989,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="M15" sqref="M15:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4026,7 +4002,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -4168,13 +4144,13 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4341,7 +4317,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -4377,7 +4353,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4579,7 +4555,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>-109</v>
@@ -4601,7 +4577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4618,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -4759,7 +4735,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -4778,6 +4754,157 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>-15</v>
+      </c>
+      <c r="E2">
+        <v>-35</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>-15</v>
+      </c>
+      <c r="E6">
+        <v>-35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6584,7 +6711,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6593,7 +6720,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6641,7 +6768,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6649,7 +6776,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6657,7 +6784,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6665,13 +6792,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -6691,7 +6818,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -7064,7 +7191,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>-232</v>
